--- a/data_output/prism_passive/all_passive_out_elong_AT_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>24.857102889280256</v>
+        <v>24.857102922989185</v>
       </c>
       <c r="C2">
-        <v>13.754925913993773</v>
+        <v>13.754925909435919</v>
       </c>
       <c r="D2">
-        <v>35.965469967595816</v>
+        <v>35.965469801597273</v>
       </c>
       <c r="E2">
-        <v>20.748228810008527</v>
+        <v>20.748228890975817</v>
       </c>
       <c r="F2">
-        <v>62.567746427366387</v>
+        <v>62.567746443495736</v>
       </c>
       <c r="G2">
-        <v>4.4140510983860395</v>
+        <v>4.4140511249310777</v>
       </c>
       <c r="H2">
-        <v>4.4939757922901009</v>
+        <v>4.4939758486192289</v>
       </c>
       <c r="I2">
-        <v>7.9154503995433743</v>
+        <v>7.9154504100346941</v>
       </c>
       <c r="J2">
-        <v>9.7634979237328849</v>
+        <v>9.7634979501565766</v>
       </c>
       <c r="K2">
-        <v>10.884254272968093</v>
+        <v>10.884254337449491</v>
       </c>
       <c r="L2">
-        <v>8.3989403367990008</v>
+        <v>8.3989403508663827</v>
       </c>
       <c r="M2">
-        <v>7.3310272454807546</v>
+        <v>7.3310272878725726</v>
       </c>
       <c r="N2">
-        <v>2.8514762392051836</v>
+        <v>2.8514763132929914</v>
       </c>
       <c r="O2">
-        <v>-1.9547159028039758</v>
+        <v>-1.9547158743175501</v>
       </c>
       <c r="P2">
-        <v>14.450791332821318</v>
+        <v>14.450791318474565</v>
       </c>
       <c r="Q2">
-        <v>9.4158346810825719</v>
+        <v>9.4158347024085742</v>
       </c>
       <c r="R2">
-        <v>4.3974152718439186</v>
+        <v>4.397415285381463</v>
       </c>
       <c r="S2">
-        <v>9.4857492663064846</v>
+        <v>9.4857492822114011</v>
       </c>
       <c r="T2">
-        <v>0.13515920172635276</v>
+        <v>0.13515923369281069</v>
       </c>
       <c r="U2">
-        <v>-10.923836637745381</v>
+        <v>-10.92383659249225</v>
       </c>
       <c r="V2">
-        <v>10.399353899938212</v>
+        <v>10.399353952104001</v>
       </c>
       <c r="W2">
-        <v>7.3106534788674935</v>
+        <v>7.3106535050579637</v>
       </c>
       <c r="X2">
-        <v>1.3498910642535975</v>
+        <v>1.3498910636811559</v>
       </c>
       <c r="Y2">
-        <v>-3.8687453296122314</v>
+        <v>-3.8687453099319526</v>
       </c>
       <c r="Z2">
-        <v>24.45455527387314</v>
+        <v>24.454555298210352</v>
       </c>
       <c r="AA2">
-        <v>5.7105708844393845</v>
+        <v>5.7105709008475927</v>
       </c>
       <c r="AB2">
-        <v>17.496321707069306</v>
+        <v>17.496321712579963</v>
       </c>
       <c r="AC2">
-        <v>9.9339239256687577</v>
+        <v>9.9339239608752408</v>
       </c>
       <c r="AD2">
-        <v>22.473162558796524</v>
+        <v>22.473162578414104</v>
       </c>
       <c r="AE2">
-        <v>38.085555920462191</v>
+        <v>38.085555871018251</v>
       </c>
       <c r="AF2">
-        <v>6.4988871390409884</v>
+        <v>6.4988871391014555</v>
       </c>
       <c r="AG2">
-        <v>8.1606377314221987</v>
+        <v>8.1606377896779065</v>
       </c>
       <c r="AH2">
-        <v>9.4388860438855389</v>
+        <v>9.4388860621910595</v>
       </c>
       <c r="AI2">
-        <v>1.2680290785874178</v>
+        <v>1.268029102011127</v>
       </c>
       <c r="AJ2">
-        <v>14.793992369446343</v>
+        <v>14.793992415922176</v>
       </c>
       <c r="AK2">
-        <v>14.744029941816763</v>
+        <v>14.744029968701142</v>
       </c>
       <c r="AL2">
-        <v>5.0597575622099669</v>
+        <v>5.0597575483557549</v>
       </c>
       <c r="AM2">
-        <v>4.9986180221443206</v>
+        <v>4.9986180793013446</v>
       </c>
       <c r="AN2">
-        <v>3.3322462115966403</v>
+        <v>3.3322462717138421</v>
       </c>
       <c r="AO2">
-        <v>7.5443350845617836</v>
+        <v>7.5443350773868083</v>
       </c>
       <c r="AP2">
-        <v>1.5264489033982862</v>
+        <v>1.5264489192239736</v>
       </c>
       <c r="AQ2">
-        <v>6.4395230155847543</v>
+        <v>6.4395230493417515</v>
       </c>
       <c r="AR2">
-        <v>6.9409593878544129</v>
+        <v>6.9409593852486182</v>
       </c>
       <c r="AS2">
-        <v>9.8948233195189061</v>
+        <v>9.8948233114676043</v>
       </c>
       <c r="AT2">
-        <v>-1.3005885696473882</v>
+        <v>-1.3005885444873897</v>
       </c>
       <c r="AU2">
-        <v>3.2659743902206628</v>
+        <v>3.2659744124657877</v>
       </c>
       <c r="AV2">
-        <v>18.990867573267735</v>
+        <v>18.990867586493245</v>
       </c>
       <c r="AW2">
-        <v>3.2878313210273618</v>
+        <v>3.287831332786304</v>
       </c>
       <c r="AX2">
-        <v>7.1819303738829134</v>
+        <v>7.1819303000974628</v>
       </c>
       <c r="AY2">
-        <v>-1.9525854454306355</v>
+        <v>-1.9525854416323369</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18.510446543156078</v>
+        <v>18.510446526792059</v>
       </c>
       <c r="C3">
-        <v>13.993400774672274</v>
+        <v>13.993400761049053</v>
       </c>
       <c r="D3">
-        <v>-5.8711297858057279</v>
+        <v>-5.8711297697243836</v>
       </c>
       <c r="E3">
-        <v>12.539660381943108</v>
+        <v>12.539660391281757</v>
       </c>
       <c r="F3">
-        <v>15.259000726020204</v>
+        <v>15.259000778258226</v>
       </c>
       <c r="G3">
-        <v>4.234686958959422</v>
+        <v>4.2346869812882346</v>
       </c>
       <c r="H3">
-        <v>3.3626152495282611</v>
+        <v>3.3626152877599367</v>
       </c>
       <c r="I3">
-        <v>2.1380019024784076</v>
+        <v>2.1380019167812492</v>
       </c>
       <c r="J3">
-        <v>8.5319521277816932</v>
+        <v>8.5319521343598268</v>
       </c>
       <c r="K3">
-        <v>-8.8760622782551337</v>
+        <v>-8.8760622425083255</v>
       </c>
       <c r="L3">
-        <v>-23.489117544561978</v>
+        <v>-23.48911749890371</v>
       </c>
       <c r="M3">
-        <v>13.54211746180853</v>
+        <v>13.542287591423772</v>
       </c>
       <c r="N3">
-        <v>4.1701236360078511</v>
+        <v>4.170123674849286</v>
       </c>
       <c r="O3">
-        <v>3.6266888498960697</v>
+        <v>3.6266888763321674</v>
       </c>
       <c r="P3">
-        <v>2.7723127816756161</v>
+        <v>2.772312784206548</v>
       </c>
       <c r="Q3">
-        <v>8.7604674277664145</v>
+        <v>8.7604674662440871</v>
       </c>
       <c r="R3">
-        <v>12.123651147136229</v>
+        <v>12.123651175552915</v>
       </c>
       <c r="S3">
-        <v>6.7781488883723</v>
+        <v>6.7781489043690613</v>
       </c>
       <c r="T3">
-        <v>5.6759055804185579</v>
+        <v>5.675905624947049</v>
       </c>
       <c r="U3">
-        <v>2.8048651143348025</v>
+        <v>2.8048651418220771</v>
       </c>
       <c r="V3">
-        <v>-17.37881321839825</v>
+        <v>-17.378813198965467</v>
       </c>
       <c r="W3">
-        <v>-0.79355175620375462</v>
+        <v>-0.79355167540528271</v>
       </c>
       <c r="X3">
-        <v>4.0557553919684288</v>
+        <v>4.0557554502886113</v>
       </c>
       <c r="Y3">
-        <v>3.2019931000003439</v>
+        <v>3.2019931175709786</v>
       </c>
       <c r="Z3">
-        <v>1.7198122723057736</v>
+        <v>1.7198122757481613</v>
       </c>
       <c r="AA3">
-        <v>11.614981211218037</v>
+        <v>11.614981213846811</v>
       </c>
       <c r="AB3">
-        <v>19.585500534456202</v>
+        <v>19.585500539343258</v>
       </c>
       <c r="AC3">
-        <v>7.2285260372011635</v>
+        <v>7.2285260797377617</v>
       </c>
       <c r="AD3">
-        <v>19.606440908095394</v>
+        <v>19.606441013755628</v>
       </c>
       <c r="AE3">
-        <v>13.019495160091147</v>
+        <v>13.019495189325283</v>
       </c>
       <c r="AF3">
-        <v>8.5963059015614647</v>
+        <v>8.5963059084461833</v>
       </c>
       <c r="AG3">
-        <v>2.1785710873369197</v>
+        <v>2.1785713557718225</v>
       </c>
       <c r="AH3">
-        <v>3.8666906241446526</v>
+        <v>3.86669058847896</v>
       </c>
       <c r="AI3">
-        <v>17.045484686021496</v>
+        <v>17.045484772484983</v>
       </c>
       <c r="AJ3">
-        <v>4.5036934065010286</v>
+        <v>4.5036934146370982</v>
       </c>
       <c r="AK3">
-        <v>-1.6507158637590464</v>
+        <v>-1.6507158522563543</v>
       </c>
       <c r="AL3">
-        <v>0.44925018309384512</v>
+        <v>0.44925020289353768</v>
       </c>
       <c r="AM3">
-        <v>8.2655933203932506</v>
+        <v>8.2655933541478888</v>
       </c>
       <c r="AN3">
-        <v>15.967821577857201</v>
+        <v>15.967821620335698</v>
       </c>
       <c r="AO3">
-        <v>8.2494481706915863</v>
+        <v>8.2494481885825905</v>
       </c>
       <c r="AP3">
-        <v>4.7577834429845822</v>
+        <v>4.7577834742225775</v>
       </c>
       <c r="AQ3">
-        <v>3.7170214627048423</v>
+        <v>3.7170214605999803</v>
       </c>
       <c r="AR3">
-        <v>4.6957979376345733</v>
+        <v>4.6957979396815119</v>
       </c>
       <c r="AS3">
-        <v>19.915228941077288</v>
+        <v>19.915228972348999</v>
       </c>
       <c r="AT3">
-        <v>6.3871046406603398</v>
+        <v>6.3871046290890519</v>
       </c>
       <c r="AU3">
-        <v>5.862570981102202</v>
+        <v>5.8625710127755681</v>
       </c>
       <c r="AV3">
-        <v>3.1930344087096927</v>
+        <v>3.1930344532146222</v>
       </c>
       <c r="AW3">
-        <v>10.699183348776007</v>
+        <v>10.699183427402101</v>
       </c>
       <c r="AX3">
-        <v>9.2077386970467643</v>
+        <v>9.2077387381465101</v>
       </c>
       <c r="AY3">
-        <v>3.8326543843828915</v>
+        <v>3.8326544102551239</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_AT_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>24.857102922989185</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>13.754925909435919</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>35.965469801597273</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>20.748228890975817</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>62.567746443495736</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>4.4140511249310777</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>4.4939758486192289</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>7.9154504100346941</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>9.7634979501565766</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>10.884254337449491</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.3989403508663827</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>7.3310272878725726</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.8514763132929914</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-1.9547158743175501</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.450791318474565</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>9.4158347024085742</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>4.397415285381463</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>9.4857492822114011</v>
+        <v>9.4857159522114003</v>
       </c>
       <c r="T2">
         <v>0.13515923369281069</v>
@@ -576,147 +465,144 @@
         <v>10.399353952104001</v>
       </c>
       <c r="W2">
-        <v>7.3106535050579637</v>
+        <v>7.3106201750579629</v>
       </c>
       <c r="X2">
-        <v>1.3498910636811559</v>
+        <v>1.3499243936811567</v>
       </c>
       <c r="Y2">
         <v>-3.8687453099319526</v>
       </c>
       <c r="Z2">
-        <v>24.454555298210352</v>
+        <v>24.454588628210352</v>
       </c>
       <c r="AA2">
-        <v>5.7105709008475927</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>17.496321712579963</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>9.9339239608752408</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>22.473162578414104</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>38.085555871018251</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>6.4988871391014555</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>8.1606377896779065</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>9.4388860621910595</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.268029102011127</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>14.793992415922176</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>14.744029968701142</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>5.0597575483557549</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>4.9986180793013446</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.3322462717138421</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>7.5443350773868083</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5264489192239736</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>6.4395230493417515</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>6.9409593852486182</v>
+        <v>6.940992715248619</v>
       </c>
       <c r="AS2">
         <v>9.8948233114676043</v>
       </c>
       <c r="AT2">
-        <v>-1.3005885444873897</v>
+        <v>-1.3006218744873905</v>
       </c>
       <c r="AU2">
-        <v>3.2659744124657877</v>
+        <v>3.2660077424657885</v>
       </c>
       <c r="AV2">
-        <v>18.990867586493245</v>
+        <v>18.990834256493251</v>
       </c>
       <c r="AW2">
-        <v>3.287831332786304</v>
+        <v>3.2878646627863048</v>
       </c>
       <c r="AX2">
-        <v>7.1819303000974628</v>
+        <v>7.1819636300974565</v>
       </c>
       <c r="AY2">
-        <v>-1.9525854416323369</v>
+        <v>-1.9525521116323361</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>18.510446526792059</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13.993400761049053</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-5.8711297697243836</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>12.539660391281757</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>15.259000778258226</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4.2346869812882346</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.3626152877599367</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.1380019167812492</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>8.5319521343598268</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-8.8760622425083255</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-23.48911749890371</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>13.542287591423772</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4.170123674849286</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.6266888763321674</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2.772312784206548</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>8.7604674662440871</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>12.123651175552915</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>6.7781489043690613</v>
@@ -728,94 +614,94 @@
         <v>2.8048651418220771</v>
       </c>
       <c r="V3">
-        <v>-17.378813198965467</v>
+        <v>-17.378779868965474</v>
       </c>
       <c r="W3">
-        <v>-0.79355167540528271</v>
+        <v>-0.79351834540528898</v>
       </c>
       <c r="X3">
-        <v>4.0557554502886113</v>
+        <v>4.0557221202886105</v>
       </c>
       <c r="Y3">
-        <v>3.2019931175709786</v>
+        <v>-22.828040212429023</v>
       </c>
       <c r="Z3">
-        <v>1.7198122757481613</v>
+        <v>-3.7235543942518419</v>
       </c>
       <c r="AA3">
-        <v>11.614981213846811</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>19.585500539343258</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>7.2285260797377617</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>19.606441013755628</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>13.019495189325283</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>8.5963059084461833</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.1785713557718225</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>3.86669058847896</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>17.045484772484983</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>4.5036934146370982</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>-1.6507158522563543</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.44925020289353768</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>8.2655933541478888</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>15.967821620335698</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>8.2494481885825905</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>4.7577834742225775</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3.7170214605999803</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>4.6957979396815119</v>
+        <v>4.6957646096815182</v>
       </c>
       <c r="AS3">
-        <v>19.915228972348999</v>
+        <v>19.915262302349007</v>
       </c>
       <c r="AT3">
         <v>6.3871046290890519</v>
       </c>
       <c r="AU3">
-        <v>5.8625710127755681</v>
+        <v>5.862604342775569</v>
       </c>
       <c r="AV3">
-        <v>3.1930344532146222</v>
+        <v>3.1930677832146301</v>
       </c>
       <c r="AW3">
         <v>10.699183427402101</v>
       </c>
       <c r="AX3">
-        <v>9.2077387381465101</v>
+        <v>5.0344387381465054</v>
       </c>
       <c r="AY3">
-        <v>3.8326544102551239</v>
+        <v>-38.587312259744884</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_AT_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>24.857069559280255</v>
+        <v>-1.9546825443175493</v>
       </c>
       <c r="C2">
-        <v>7.4482592439937747</v>
+        <v>4.397415285381463</v>
       </c>
       <c r="D2">
-        <v>35.965503297595809</v>
+        <v>3.3322129417138484</v>
       </c>
       <c r="E2">
-        <v>20.748195480008526</v>
+        <v>6.4394897193417506</v>
       </c>
       <c r="F2">
         <v>62.567746427366387</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18.510446543156078</v>
+        <v>3.6266888763321674</v>
       </c>
       <c r="C3">
-        <v>6.1067007746722766</v>
+        <v>12.123617845552914</v>
       </c>
       <c r="D3">
-        <v>-5.8711631158057287</v>
+        <v>15.967788290335697</v>
       </c>
       <c r="E3">
-        <v>12.539693711943102</v>
+        <v>4.0304374520007684</v>
       </c>
       <c r="F3">
         <v>15.259000726020204</v>

--- a/data_output/prism_passive/all_passive_out_elong_AT_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>24.857069559280255</v>
+        <v>22.238109643292994</v>
       </c>
       <c r="C2">
-        <v>7.4482592439937747</v>
+        <v>-1.9546825443175493</v>
       </c>
       <c r="D2">
-        <v>35.965503297595809</v>
+        <v>0.77861807930133864</v>
       </c>
       <c r="E2">
-        <v>20.748195480008526</v>
+        <v>3.3322129417138484</v>
       </c>
       <c r="F2">
         <v>62.567746427366387</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18.510446543156078</v>
+        <v>19.973490344849282</v>
       </c>
       <c r="C3">
-        <v>6.1067007746722766</v>
+        <v>3.6266888763321674</v>
       </c>
       <c r="D3">
-        <v>-5.8711631158057287</v>
+        <v>-8.8444066458521178</v>
       </c>
       <c r="E3">
-        <v>12.539693711943102</v>
+        <v>15.967788290335697</v>
       </c>
       <c r="F3">
         <v>15.259000726020204</v>

--- a/data_output/prism_passive/all_passive_out_elong_AT_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>24.857069592989184</v>
+      </c>
+      <c r="C2">
+        <v>7.4482592394359202</v>
+      </c>
+      <c r="D2">
+        <v>35.965503131597266</v>
+      </c>
+      <c r="E2">
+        <v>20.748195560975816</v>
+      </c>
+      <c r="F2">
+        <v>62.567746443495736</v>
+      </c>
+      <c r="G2">
+        <v>4.4140177949310768</v>
+      </c>
+      <c r="H2">
+        <v>4.4939758486192289</v>
+      </c>
+      <c r="I2">
+        <v>7.9154837400346949</v>
+      </c>
+      <c r="J2">
+        <v>9.7634646201565687</v>
+      </c>
+      <c r="K2">
+        <v>-10.159078992550519</v>
+      </c>
+      <c r="L2">
+        <v>8.398907020866389</v>
+      </c>
+      <c r="M2">
+        <v>7.3310272878725726</v>
+      </c>
+      <c r="N2">
         <v>22.238109643292994</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>-1.9546825443175493</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>14.450791318474565</v>
+      </c>
+      <c r="Q2">
+        <v>-15.927531967591428</v>
+      </c>
+      <c r="R2">
+        <v>4.397415285381463</v>
+      </c>
+      <c r="S2">
+        <v>9.4857159522114003</v>
+      </c>
+      <c r="T2">
+        <v>0.13515923369281069</v>
+      </c>
+      <c r="U2">
+        <v>-10.92383659249225</v>
+      </c>
+      <c r="V2">
+        <v>10.399353952104001</v>
+      </c>
+      <c r="W2">
+        <v>7.3106201750579629</v>
+      </c>
+      <c r="X2">
+        <v>1.3499243936811567</v>
+      </c>
+      <c r="Y2">
+        <v>-3.8687453099319526</v>
+      </c>
+      <c r="Z2">
+        <v>24.454588628210352</v>
+      </c>
+      <c r="AA2">
+        <v>5.7105375708475918</v>
+      </c>
+      <c r="AB2">
+        <v>26.956355042579965</v>
+      </c>
+      <c r="AC2">
+        <v>9.9339572908752416</v>
+      </c>
+      <c r="AD2">
+        <v>22.473195908414105</v>
+      </c>
+      <c r="AE2">
+        <v>38.085555871018251</v>
+      </c>
+      <c r="AF2">
+        <v>6.4989204691014564</v>
+      </c>
+      <c r="AG2">
+        <v>8.1606044596778986</v>
+      </c>
+      <c r="AH2">
+        <v>9.4389193921910604</v>
+      </c>
+      <c r="AI2">
+        <v>1.268029102011127</v>
+      </c>
+      <c r="AJ2">
+        <v>13.004025745922178</v>
+      </c>
+      <c r="AK2">
+        <v>14.744029968701142</v>
+      </c>
+      <c r="AL2">
+        <v>5.0597908783557557</v>
+      </c>
+      <c r="AM2">
         <v>0.77861807930133864</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.3322129417138484</v>
       </c>
-      <c r="F2">
-        <v>62.567746427366387</v>
-      </c>
-      <c r="G2">
-        <v>4.4140177683860387</v>
-      </c>
-      <c r="H2">
-        <v>4.4939757922901009</v>
-      </c>
-      <c r="I2">
-        <v>7.9154837295433751</v>
-      </c>
-      <c r="J2">
-        <v>9.763464593732877</v>
-      </c>
-      <c r="K2">
-        <v>-10.159079057031917</v>
-      </c>
-      <c r="L2">
-        <v>8.398907006799007</v>
-      </c>
-      <c r="M2">
-        <v>7.3310272454807546</v>
-      </c>
-      <c r="N2">
-        <v>22.238109569205186</v>
-      </c>
-      <c r="O2">
-        <v>-1.9546825728039749</v>
-      </c>
-      <c r="P2">
-        <v>14.450791332821318</v>
-      </c>
-      <c r="Q2">
-        <v>-15.92753198891743</v>
-      </c>
-      <c r="R2">
-        <v>4.3974152718439186</v>
-      </c>
-      <c r="S2">
-        <v>9.4857159363064838</v>
-      </c>
-      <c r="T2">
-        <v>0.13515920172635276</v>
-      </c>
-      <c r="U2">
-        <v>-10.923836637745381</v>
-      </c>
-      <c r="V2">
-        <v>10.399353899938212</v>
-      </c>
-      <c r="W2">
-        <v>7.3106201488674927</v>
-      </c>
-      <c r="X2">
-        <v>1.3499243942535983</v>
-      </c>
-      <c r="Y2">
-        <v>-3.8687453296122314</v>
-      </c>
-      <c r="Z2">
-        <v>24.454588603873141</v>
-      </c>
-      <c r="AA2">
-        <v>5.7105375544393837</v>
-      </c>
-      <c r="AB2">
-        <v>26.956355037069308</v>
-      </c>
-      <c r="AC2">
-        <v>9.9339572556687585</v>
-      </c>
-      <c r="AD2">
-        <v>22.473195888796525</v>
-      </c>
-      <c r="AE2">
-        <v>38.085555920462191</v>
-      </c>
-      <c r="AF2">
-        <v>6.4989204690409892</v>
-      </c>
-      <c r="AG2">
-        <v>8.1606044014221908</v>
-      </c>
-      <c r="AH2">
-        <v>9.4389193738855397</v>
-      </c>
-      <c r="AI2">
-        <v>1.2680290785874178</v>
-      </c>
-      <c r="AJ2">
-        <v>13.004025699446345</v>
-      </c>
-      <c r="AK2">
-        <v>14.744029941816763</v>
-      </c>
-      <c r="AL2">
-        <v>5.0597908922099677</v>
-      </c>
-      <c r="AM2">
-        <v>0.77861802214431464</v>
-      </c>
-      <c r="AN2">
-        <v>3.3322128815966465</v>
-      </c>
       <c r="AO2">
-        <v>7.5443684145617844</v>
+        <v>7.5443684073868091</v>
       </c>
       <c r="AP2">
-        <v>1.5264489033982862</v>
+        <v>1.5264489192239736</v>
       </c>
       <c r="AQ2">
-        <v>6.4394896855847534</v>
+        <v>6.4394897193417506</v>
       </c>
       <c r="AR2">
-        <v>6.9409927178544137</v>
+        <v>6.940992715248619</v>
       </c>
       <c r="AS2">
-        <v>9.8948233195189061</v>
+        <v>9.8948233114676043</v>
       </c>
       <c r="AT2">
-        <v>-1.3006218996473891</v>
+        <v>-1.3006218744873905</v>
       </c>
       <c r="AU2">
-        <v>3.2660077202206637</v>
+        <v>3.2660077424657885</v>
       </c>
       <c r="AV2">
-        <v>18.990834243267741</v>
+        <v>18.990834256493251</v>
       </c>
       <c r="AW2">
-        <v>3.2878646510273626</v>
+        <v>3.2878646627863048</v>
       </c>
       <c r="AX2">
-        <v>7.1819637038829072</v>
+        <v>7.1819636300974565</v>
       </c>
       <c r="AY2">
-        <v>-1.9525521154306347</v>
+        <v>-1.9525521116323361</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>18.510446526792059</v>
+      </c>
+      <c r="C3">
+        <v>6.1067007610490549</v>
+      </c>
+      <c r="D3">
+        <v>-5.8711630997243844</v>
+      </c>
+      <c r="E3">
+        <v>12.539693721281751</v>
+      </c>
+      <c r="F3">
+        <v>15.259000778258226</v>
+      </c>
+      <c r="G3">
+        <v>4.2347203112882355</v>
+      </c>
+      <c r="H3">
+        <v>3.3626486177599304</v>
+      </c>
+      <c r="I3">
+        <v>2.13803524678125</v>
+      </c>
+      <c r="J3">
+        <v>-4.2280478656401783</v>
+      </c>
+      <c r="K3">
+        <v>-8.8760622425083255</v>
+      </c>
+      <c r="L3">
+        <v>-23.48911749890371</v>
+      </c>
+      <c r="M3">
+        <v>13.542254261423771</v>
+      </c>
+      <c r="N3">
         <v>19.973490344849282</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>3.6266888763321674</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>2.772312784206548</v>
+      </c>
+      <c r="Q3">
+        <v>8.760500796244088</v>
+      </c>
+      <c r="R3">
+        <v>12.123617845552914</v>
+      </c>
+      <c r="S3">
+        <v>6.7781489043690613</v>
+      </c>
+      <c r="T3">
+        <v>5.675905624947049</v>
+      </c>
+      <c r="U3">
+        <v>2.8048651418220771</v>
+      </c>
+      <c r="V3">
+        <v>-17.378779868965474</v>
+      </c>
+      <c r="W3">
+        <v>-0.78979241829887314</v>
+      </c>
+      <c r="X3">
+        <v>4.0557221202886105</v>
+      </c>
+      <c r="Y3">
+        <v>-22.828040212429023</v>
+      </c>
+      <c r="Z3">
+        <v>-3.7235543942518419</v>
+      </c>
+      <c r="AA3">
+        <v>11.615014543846812</v>
+      </c>
+      <c r="AB3">
+        <v>19.115533869343253</v>
+      </c>
+      <c r="AC3">
+        <v>7.2284927497377609</v>
+      </c>
+      <c r="AD3">
+        <v>19.606474343755629</v>
+      </c>
+      <c r="AE3">
+        <v>13.019528519325284</v>
+      </c>
+      <c r="AF3">
+        <v>8.5963059084461833</v>
+      </c>
+      <c r="AG3">
+        <v>2.1785713557718225</v>
+      </c>
+      <c r="AH3">
+        <v>3.6556891273466405</v>
+      </c>
+      <c r="AI3">
+        <v>14.105518102484993</v>
+      </c>
+      <c r="AJ3">
+        <v>4.5036934146370982</v>
+      </c>
+      <c r="AK3">
+        <v>-1.6507491822563622</v>
+      </c>
+      <c r="AL3">
+        <v>0.44925020289353768</v>
+      </c>
+      <c r="AM3">
         <v>-8.8444066458521178</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>15.967788290335697</v>
       </c>
-      <c r="F3">
-        <v>15.259000726020204</v>
-      </c>
-      <c r="G3">
-        <v>4.2347202889594229</v>
-      </c>
-      <c r="H3">
-        <v>3.3626485795282548</v>
-      </c>
-      <c r="I3">
-        <v>2.1380352324784084</v>
-      </c>
-      <c r="J3">
-        <v>-4.2280478722183119</v>
-      </c>
-      <c r="K3">
-        <v>-8.8760622782551337</v>
-      </c>
-      <c r="L3">
-        <v>-23.489117544561978</v>
-      </c>
-      <c r="M3">
-        <v>13.542084131808529</v>
-      </c>
-      <c r="N3">
-        <v>19.973490306007847</v>
-      </c>
-      <c r="O3">
-        <v>3.6266888498960697</v>
-      </c>
-      <c r="P3">
-        <v>2.7723127816756161</v>
-      </c>
-      <c r="Q3">
-        <v>8.7605007577664153</v>
-      </c>
-      <c r="R3">
-        <v>12.123617817136228</v>
-      </c>
-      <c r="S3">
-        <v>6.7781488883723</v>
-      </c>
-      <c r="T3">
-        <v>5.6759055804185579</v>
-      </c>
-      <c r="U3">
-        <v>2.8048651143348025</v>
-      </c>
-      <c r="V3">
-        <v>-17.378779888398256</v>
-      </c>
-      <c r="W3">
-        <v>-0.78979248419973658</v>
-      </c>
-      <c r="X3">
-        <v>4.055722061968428</v>
-      </c>
-      <c r="Y3">
-        <v>-22.828040229999658</v>
-      </c>
-      <c r="Z3">
-        <v>-3.7235543976942296</v>
-      </c>
-      <c r="AA3">
-        <v>11.615014541218038</v>
-      </c>
-      <c r="AB3">
-        <v>19.115533864456197</v>
-      </c>
-      <c r="AC3">
-        <v>7.2284927072011627</v>
-      </c>
-      <c r="AD3">
-        <v>19.606474238095394</v>
-      </c>
-      <c r="AE3">
-        <v>13.019528490091147</v>
-      </c>
-      <c r="AF3">
-        <v>8.5963059015614647</v>
-      </c>
-      <c r="AG3">
-        <v>2.1785710873369197</v>
-      </c>
-      <c r="AH3">
-        <v>3.655689169565882</v>
-      </c>
-      <c r="AI3">
-        <v>14.105518016021506</v>
-      </c>
-      <c r="AJ3">
-        <v>4.5036934065010286</v>
-      </c>
-      <c r="AK3">
-        <v>-1.6507491937590544</v>
-      </c>
-      <c r="AL3">
-        <v>0.44925018309384512</v>
-      </c>
-      <c r="AM3">
-        <v>-8.844406679606756</v>
-      </c>
-      <c r="AN3">
-        <v>15.9677882478572</v>
-      </c>
       <c r="AO3">
-        <v>8.2494148406915855</v>
+        <v>8.2494148585825897</v>
       </c>
       <c r="AP3">
-        <v>4.7578167729845831</v>
+        <v>4.7578168042225784</v>
       </c>
       <c r="AQ3">
-        <v>4.0304375089272497</v>
+        <v>4.0304374520007684</v>
       </c>
       <c r="AR3">
-        <v>4.6957646076345796</v>
+        <v>4.6957646096815182</v>
       </c>
       <c r="AS3">
-        <v>19.915262271077296</v>
+        <v>19.915262302349007</v>
       </c>
       <c r="AT3">
-        <v>6.3871046406603398</v>
+        <v>6.3871046290890519</v>
       </c>
       <c r="AU3">
-        <v>5.8626043111022028</v>
+        <v>5.862604342775569</v>
       </c>
       <c r="AV3">
-        <v>3.1930677387097006</v>
+        <v>3.1930677832146301</v>
       </c>
       <c r="AW3">
-        <v>10.699183348776007</v>
+        <v>10.699183427402101</v>
       </c>
       <c r="AX3">
-        <v>5.0344386970467596</v>
+        <v>5.0344387381465054</v>
       </c>
       <c r="AY3">
-        <v>-38.587312285617116</v>
+        <v>-38.587312259744884</v>
       </c>
     </row>
   </sheetData>
